--- a/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/equipment.xlsx
+++ b/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/equipment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,16 @@
   <si>
     <t>生产固资</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制备</t>
+  </si>
+  <si>
+    <t>模造</t>
   </si>
 </sst>
 </file>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,9 +457,10 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +479,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -488,8 +502,11 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -507,13 +524,19 @@
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"厂务固资,厂务设备,生产固资,生产设备,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"制备,模造,激光,镀膜,测量,自动化"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
